--- a/excel/유의어db_정렬변경0402.xlsx
+++ b/excel/유의어db_정렬변경0402.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\consolework\tistory-convert\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Consolework\tistory-convert-new\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C301D0-D4DB-4F65-BFAF-6F8DFBF8E506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F062E0DC-E6B2-4DA1-845F-033F773974A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-2510" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="양방향" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
   <si>
     <t>였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,12 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>옵니다.=와요.=오죠.</t>
-  </si>
-  <si>
-    <t>봅니다.=봐요.=보죠.</t>
-  </si>
-  <si>
     <t>겠습니다.=겠어요.</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>것 입니다.=것 이예요.</t>
   </si>
   <si>
-    <t>립니다.=려요.=리죠.</t>
-  </si>
-  <si>
     <t>깁니다.=기어요.</t>
   </si>
   <si>
@@ -390,9 +381,6 @@
     <t>없습니다.=없어요.=없답니다.</t>
   </si>
   <si>
-    <t>합니다.=해요.=합니다.=하죠.</t>
-  </si>
-  <si>
     <t>하겠습니다.=해 보겠습니다.=해 볼게요.=해볼게요.</t>
   </si>
   <si>
@@ -441,9 +429,6 @@
     <t>았습니다.=았어요.</t>
   </si>
   <si>
-    <t>있는데요.=있어요.</t>
-  </si>
-  <si>
     <t>되겠네요.=되겠죠.=되겠습니다.</t>
   </si>
   <si>
@@ -513,9 +498,6 @@
     <t>아닙니다.=아니예요.</t>
   </si>
   <si>
-    <t>입니다.=이죠.=이지요.</t>
-  </si>
-  <si>
     <t>않습니다.=않아요.</t>
   </si>
   <si>
@@ -528,9 +510,6 @@
     <t>갔습니다.=갔어요.</t>
   </si>
   <si>
-    <t>인데요.=입니다.</t>
-  </si>
-  <si>
     <t>도움이 되는=도움을 주는=도움되는</t>
   </si>
   <si>
@@ -579,9 +558,6 @@
     <t>해볼 수 있는=할 수 있는=해볼만한</t>
   </si>
   <si>
-    <t>대해서는=대해선=대해서</t>
-  </si>
-  <si>
     <t>대해서=대하여=연관하여=관련하여</t>
   </si>
   <si>
@@ -615,240 +591,802 @@
     <t>함유되=포함되</t>
   </si>
   <si>
+    <t>억제시켜=억제해</t>
+  </si>
+  <si>
+    <t>들어 있는=포함되어 있는=들어가 있는</t>
+  </si>
+  <si>
+    <t>유발하=일으키</t>
+  </si>
+  <si>
+    <t>이라는=이라고 하는=이라 하는</t>
+  </si>
+  <si>
+    <t>배출시켜=배출해</t>
+  </si>
+  <si>
+    <t>배출하고=내보내고=배출시키고</t>
+  </si>
+  <si>
+    <t>생기게=발생하게</t>
+  </si>
+  <si>
+    <t>쌓인=축적된=쌓이게 된</t>
+  </si>
+  <si>
+    <t>탁해지거나=걸쭉해지거나</t>
+  </si>
+  <si>
+    <t>원인이 되는=원인인=원인의</t>
+  </si>
+  <si>
+    <t>생성해 주는=만들어 주는</t>
+  </si>
+  <si>
+    <t>유지해=지속시켜</t>
+  </si>
+  <si>
+    <t>돕고=도와주고=도와주며</t>
+  </si>
+  <si>
+    <t>과다 섭취=과하게 섭취=많이 섭취</t>
+  </si>
+  <si>
+    <t>찬 성질=차가운 성질=냉한 성질</t>
+  </si>
+  <si>
+    <t>생길 수=일어날 수=생기게 될 수</t>
+  </si>
+  <si>
+    <t>있기 때문에=있으므로</t>
+  </si>
+  <si>
+    <t>막아주고=방지하고</t>
+  </si>
+  <si>
+    <t>효과적이며=효과가 뛰어나며=효과가 대단하며</t>
+  </si>
+  <si>
+    <t>효과적이고=효과가 뛰어나고=효과가 대단하고</t>
+  </si>
+  <si>
+    <t>준다고 알려져=주는 것으로 알려져=준다는 것으로 알려져</t>
+  </si>
+  <si>
+    <t>줄이고=줄여주고=줄이게 되고</t>
+  </si>
+  <si>
+    <t>일종인=한 종류인=하나인=한 가지인</t>
+  </si>
+  <si>
+    <t>평소=평상시=평상시에</t>
+  </si>
+  <si>
+    <t>조만간=곧=지금부터=지금 바로</t>
+  </si>
+  <si>
+    <t>나만의=나 자신만의</t>
+  </si>
+  <si>
+    <t>일상을=일상적인 것을</t>
+  </si>
+  <si>
+    <t>등의=등등</t>
+  </si>
+  <si>
+    <t>요즈음=요즘 들어=요즘들어서</t>
+  </si>
+  <si>
+    <t>유튜브=youtube</t>
+  </si>
+  <si>
+    <t>영상콘텐츠=동영상 콘텐츠</t>
+  </si>
+  <si>
+    <t>인스타=인스타그램=instagram=인별그램</t>
+  </si>
+  <si>
+    <t>SNS=소셜미디어</t>
+  </si>
+  <si>
+    <t>유서=유언장</t>
+  </si>
+  <si>
+    <t>예로부터=옛날부터=예전부터=오래전부터</t>
+  </si>
+  <si>
+    <t>다양한=여러가지</t>
+  </si>
+  <si>
+    <t>각종=가지가지=갖가지</t>
+  </si>
+  <si>
+    <t>많은 도움=큰 도움</t>
+  </si>
+  <si>
+    <t>더욱더=더더욱=더욱</t>
+  </si>
+  <si>
+    <t>인해서=인하여=인해</t>
+  </si>
+  <si>
+    <t>위해서=위하여=위해</t>
+  </si>
+  <si>
+    <t>꼭=반드시=필수로</t>
+  </si>
+  <si>
+    <t>관련=연관</t>
+  </si>
+  <si>
+    <t>강하지=쎄지</t>
+  </si>
+  <si>
+    <t>내외로=안팎으로=안과 밖으로</t>
+  </si>
+  <si>
+    <t>이제부터=지금부터=바로 지금부터=현 시점부터</t>
+  </si>
+  <si>
+    <t>으뜸인=최고인=제일인</t>
+  </si>
+  <si>
+    <t>화려하게=수려하게=유려하게=아름답게</t>
+  </si>
+  <si>
+    <t>하며=하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렵지도 않고=어렵지 않고=쉽고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과일입니다=과일이예요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어르신들도=노인분들도=나이 든 분도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단해서=간편해서=손 쉬워서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는=지금은=요즘은=요즘엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주며=주고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주고 있다.=주었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격도 저렴하며=가격도 싸며=가격이 저렴하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀어주=해소해주=해소해 주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효능=효험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남녀노소=어른 아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들도=어린이들도=유아들도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아하는=선호하는=즐기는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용되고=쓰이고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data2</t>
+  </si>
+  <si>
+    <t>data1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체중감량=체중 감량=다이어트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 가지=다양한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>었습니다.=었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>였습니다.=였어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합니다.=해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합니다.=해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>했습니다.=했어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합시다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졌습니다.=졌어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움이 된다고=도움을 준다고=도움된다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할을 하는데=역할을 담당하는데=역할을 수행하는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거하는데=없애는데=없애주는 데에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납니다.=나게됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생겨날수록=생기게 될수록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이때=이 경우에=이 때에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지닙니다.=지니게 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줬습니다.=줬어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줍니다.=주어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싶습니다.=싶어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아닙니다.=아니예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입니다.=여요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냈습니다.=냈어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋습니다.=좋아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>았습니다.=았어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐습니다.=됐어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혔습니다.=혔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼽힙니다.=꼽혀요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봤습니다.=봤어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없습니다.=없어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습니다.=아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납니다.=나요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>났습니다.=났어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춥니다.=춰요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>췄습니다.=췄어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렸습니다.=렸어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씁니다.=써요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썼습니다.=썼어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겼습니다.=겼어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉽습니다.=쉬워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>않습니다.=않아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>킵니다.=켜요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>켰습니다.=켰어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊습니다.=깊어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나뉩니다.=나뉘어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낍니다.=껴요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼇습니다.=꼈어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생깁니다.=생겨요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지칩니다.=지쳐요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쳤습니다.=쳤어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑤십니다.=쑤셔요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쑤셨습니다.=쑤셨어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잦습니다.=잦아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많습니다.=많아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만듭니다.=만들어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렵습니다.=어려워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웠습니다.=웠어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑니다.=가요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갔습니다.=갔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왔습니다.=왔어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봅시다.=보아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덥습니다.=더워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뤘습니다.=뤘어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>렀습니다.=렀어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놨습니다.=놨어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섰습니다.=섰어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답습니다.=다워요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가한다고=높아진다고=올라간다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재탄생=다시 탄생=새롭게 탄생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>껍질=껍데기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 가지=2개=양쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타났다고=확인되었다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항산화제=산화를 억제하는 물질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높아져=올라가=증가해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파괴하는=무너뜨리는=소멸시키는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두를=전부를=모든 것을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함량=함유하고 있는 분량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같이=함께=동반해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일품인=명품인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와주기=거들어주기=도움을 주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활기찬=생기가 넘치는=생동감 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많기=풍부하기=넘치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있듯이=있듯,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성분=물질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할 수 있도록=할 수 있게=하도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한= 강한=엄청난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>을 정도로=을 만큼=듯이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛과 향기=풍미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛과 향이=풍미가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕분에=그 덕에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유난히=유달리=유별히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특히=특별히=각별히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹는=섭취하는=복용하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>널리 알려진=유명한=저명한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 있는=인기가 높은=사랑 받는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉진해=재촉해=증진해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿어=생각하여=신뢰하여=확신하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하여=해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸이=신체가=인체가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸에=신체에=인체에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>되는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됩니다.=돼요.=되어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>익을수록=익어갈수록=익어가게 될수록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과적이어서=효과가 좋아서=효과가 상당해서=효과가 높아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 돼요.= 되어요.= 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>었습니다.=었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고돼요.=보고됩니다.=보고되고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대해서는=대해선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높거나=높아지거나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된=옳지 않은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강한=튼튼한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 좋은=최고의=최선의=제일 좋은=탁월한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겪게=경험하게=체험하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>높이는=높게 만드는=높게 하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡수해=빨아들여=빨아 들여서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주의할 점=유의할 점=유의사항=주의사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔히=일반적으로=흔하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또다른=또 하나의=하나의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 다른=또한 다른</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서=그러므로=그렇기 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 있습니다.= 있어요.= 있답니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합니다.=해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸에=신체에=건강에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많이=다양하게=다량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먹은=섭취한=복용한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갖고=가지고=지니고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들=어린이들=유아들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은=수많은=수없이 많은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있습니다.=있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봅니다.=봐요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵니다.=와요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>것입니다.=것이예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>립니다.=려요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이다. 가 안바뀜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시=표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함유한=포함한=들어있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>함유돼=포함돼</t>
-  </si>
-  <si>
-    <t>억제시켜=억제해</t>
-  </si>
-  <si>
-    <t>들어 있는=포함되어 있는=들어가 있는</t>
-  </si>
-  <si>
-    <t>유발하=일으키</t>
-  </si>
-  <si>
-    <t>이라는=이라고 하는=이라 하는</t>
-  </si>
-  <si>
-    <t>배출시켜=배출해</t>
-  </si>
-  <si>
-    <t>배출하고=내보내고=배출시키고</t>
-  </si>
-  <si>
-    <t>생기게=발생하게</t>
-  </si>
-  <si>
-    <t>쌓인=축적된=쌓이게 된</t>
-  </si>
-  <si>
-    <t>탁해지거나=걸쭉해지거나</t>
-  </si>
-  <si>
-    <t>원인이 되는=원인인=원인의</t>
-  </si>
-  <si>
-    <t>생성해 주는=만들어 주는</t>
-  </si>
-  <si>
-    <t>유지해=지속시켜</t>
-  </si>
-  <si>
-    <t>돕고=도와주고=도와주며</t>
-  </si>
-  <si>
-    <t>과다 섭취=과하게 섭취=많이 섭취</t>
-  </si>
-  <si>
-    <t>찬 성질=차가운 성질=냉한 성질</t>
-  </si>
-  <si>
-    <t>뿐만 아니라=더불어</t>
-  </si>
-  <si>
-    <t>생길 수=일어날 수=생기게 될 수</t>
-  </si>
-  <si>
-    <t>있기 때문에=있으므로</t>
-  </si>
-  <si>
-    <t>막아주고=방지하고</t>
-  </si>
-  <si>
-    <t>효과적이며=효과가 뛰어나며=효과가 대단하며</t>
-  </si>
-  <si>
-    <t>효과적이고=효과가 뛰어나고=효과가 대단하고</t>
-  </si>
-  <si>
-    <t>준다고 알려져=주는 것으로 알려져=준다는 것으로 알려져</t>
-  </si>
-  <si>
-    <t>줄이고=줄여주고=줄이게 되고</t>
-  </si>
-  <si>
-    <t>일종인=한 종류인=하나인=한 가지인</t>
-  </si>
-  <si>
-    <t>평소=평상시=평상시에</t>
-  </si>
-  <si>
-    <t>조만간=곧=지금부터=지금 바로</t>
-  </si>
-  <si>
-    <t>나만의=나 자신만의</t>
-  </si>
-  <si>
-    <t>일상을=일상적인 것을</t>
-  </si>
-  <si>
-    <t>등의=등등</t>
-  </si>
-  <si>
-    <t>요즈음=요즘 들어=요즘들어서</t>
-  </si>
-  <si>
-    <t>유튜브=youtube</t>
-  </si>
-  <si>
-    <t>영상콘텐츠=동영상 콘텐츠</t>
-  </si>
-  <si>
-    <t>인스타=인스타그램=instagram=인별그램</t>
-  </si>
-  <si>
-    <t>SNS=소셜미디어</t>
-  </si>
-  <si>
-    <t>유서=유언장</t>
-  </si>
-  <si>
-    <t>예로부터=옛날부터=예전부터=오래전부터</t>
-  </si>
-  <si>
-    <t>다양한=여러가지</t>
-  </si>
-  <si>
-    <t>각종=가지가지=갖가지</t>
-  </si>
-  <si>
-    <t>많은 도움=큰 도움</t>
-  </si>
-  <si>
-    <t>더욱더=더더욱=더욱</t>
-  </si>
-  <si>
-    <t>인해서=인하여=인해</t>
-  </si>
-  <si>
-    <t>위해서=위하여=위해</t>
-  </si>
-  <si>
-    <t>꼭=반드시=필수로</t>
-  </si>
-  <si>
-    <t>관련=연관</t>
-  </si>
-  <si>
-    <t>강하지=쎄지</t>
-  </si>
-  <si>
-    <t>내외로=안팎으로=안과 밖으로</t>
-  </si>
-  <si>
-    <t>이제부터=지금부터=바로 지금부터=현 시점부터</t>
-  </si>
-  <si>
-    <t>으뜸인=최고인=제일인</t>
-  </si>
-  <si>
-    <t>화려하게=수려하게=유려하게=아름답게</t>
-  </si>
-  <si>
-    <t>하며=하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어렵지도 않고=어렵지 않고=쉽고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과일입니다=과일이예요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어르신들도=노인분들도=나이 든 분도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>간단해서=간편해서=손 쉬워서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재는=지금은=요즘은=요즘엔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주며=주고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주고 있다.=주었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격도 저렴하며=가격도 싸며=가격이 저렴하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀어주=해소해주=해소해 주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효능=효험</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남녀노소=어른 아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이들도=어린이들도=유아들도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아하는=선호하는=즐기는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활용되고=쓰이고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>많이=다양하게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data2</t>
-  </si>
-  <si>
-    <t>data1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체중감량=체중 감량=다이어트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러 가지=다양한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>있습니다.=있어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>었습니다.=었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따르면=의하면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중심으로=중점으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한=중요시되는=주요한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할을 해=역을 담당하여=역할을 담당하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속하는=소속되는=분류되는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 몸의=신체의=인체의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도움을 주어=도움이 되=도움줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 몸에=신체에=인체에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영향을 주는=영향을 끼치는=여파를 미치는=영향력을 끼치는=영향력을 미치는=여파가 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인데요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -856,435 +1394,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>였습니다.=였어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합니다.=해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합니다.=해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>했습니다.=했어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합시다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졌습니다.=졌어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도움이 된다고=도움을 준다고=도움된다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할을 하는데=역할을 담당하는데=역할을 수행하는데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제거하는데=없애는데=없애주는 데에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납니다.=나게됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생겨날수록=생기게 될수록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이때=이 경우에=이 때에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지닙니다.=지니게 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>줬습니다.=줬어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>줍니다.=주어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싶습니다.=싶어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아닙니다.=아니예요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입니다.=여요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>냈습니다.=냈어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋습니다.=좋아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>았습니다.=았어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>됐습니다.=됐어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혔습니다.=혔어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼽힙니다.=꼽혀요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봤습니다.=봤어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없습니다.=없어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>습니다.=아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납니다.=나요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>났습니다.=났어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춥니다.=춰요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>췄습니다.=췄어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>것입니다.=것이죠.=것이예요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>렸습니다.=렸어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씁니다.=써요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썼습니다.=썼어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>겼습니다.=겼어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쉽습니다.=쉬워요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>않습니다.=않아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>킵니다.=켜요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>켰습니다.=켰어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깊습니다.=깊어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나뉩니다.=나뉘어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낍니다.=껴요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼇습니다.=꼈어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생깁니다.=생겨요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지칩니다.=지쳐요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쳤습니다.=쳤어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쑤십니다.=쑤셔요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쑤셨습니다.=쑤셨어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잦습니다.=잦아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>많습니다.=많아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>만듭니다.=만들어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어렵습니다.=어려워요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웠습니다.=웠어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑니다.=가요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갔습니다.=갔어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왔습니다.=왔어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>봅시다.=보아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덥습니다.=더워요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뤘습니다.=뤘어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>렀습니다.=렀어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>놨습니다.=놨어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>섰습니다.=섰어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답습니다.=다워요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가한다고=높아진다고=올라간다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재탄생=다시 탄생=새롭게 탄생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>껍질=껍데기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>많은=풍부한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두 가지=2개=양쪽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나타났다고=확인되었다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항산화제=산화를 억제하는 물질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>높아져=올라가=증가해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파괴하는=무너뜨리는=소멸시키는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모두를=전부를=모든 것을</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함량=함유하고 있는 분량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>같이=함께=동반해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸에=신체에=건강에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일품인=명품인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도와주기=거들어주기=도움을 주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활기찬=생기가 넘치는=생동감 있는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>많기=풍부하기=넘치기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>있듯이=있듯,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성분=물질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할 수 있도록=할 수 있게=하도록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강력한= 강한=엄청난</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>을 정도로=을 만큼=듯이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛과 향기=풍미</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛과 향이=풍미가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>덕분에=그 덕에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유난히=유달리=유별히</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특히=특별히=각별히</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹는=섭취하는=복용하는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>널리 알려진=유명한=저명한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인기 있는=인기가 높은=사랑 받는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>촉진해=재촉해=증진해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 개=1개=하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>믿어=생각하여=신뢰하여=확신하여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하여=해서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸이=신체가=인체가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몸에=신체에=인체에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>되는데요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>됩니다.=돼요.=되어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>익을수록=익어갈수록=익어가게 될수록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과적이어서=효과가 좋아서=효과가 상당해서=효과가 높아서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고돼요.=보고됩니다.=보고되고 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>었습니다.=었어요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>있습니다.=있어요.=있답니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼요.=되어요.=됩니다.</t>
+    <t>있는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들어있어요.=함유되어 있어요.=포함되어 있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거하는 데=없애는 데=없애주는 데에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍부한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은=많이 들어있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿐만 아니라=뿐더러=뿐 아니라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더구나=더군다나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 개=하나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1358,7 +1500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1372,6 +1514,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1665,846 +1810,942 @@
     <col min="1" max="1" width="83.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.75" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="25.875" customWidth="1"/>
+    <col min="19" max="19" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>350</v>
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>348</v>
+        <v>140</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>192</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>103</v>
+      <c r="A38" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>252</v>
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>327</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>328</v>
+        <v>178</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>253</v>
+      <c r="A63" t="s">
+        <v>238</v>
       </c>
       <c r="B63" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>254</v>
+        <v>377</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>381</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>308</v>
+      <c r="A65" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>238</v>
+      <c r="A66" t="s">
+        <v>241</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="B67" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>224</v>
+      <c r="A68" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="B75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>337</v>
+      </c>
+      <c r="B78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>339</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>340</v>
+      </c>
+      <c r="B80" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>341</v>
+      </c>
+      <c r="B81" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>344</v>
+      </c>
+      <c r="B83" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+      <c r="B88" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>367</v>
+      </c>
       <c r="B89" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>369</v>
+      </c>
       <c r="B90" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>371</v>
+      </c>
       <c r="B91" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>372</v>
+      </c>
       <c r="B92" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>376</v>
+      </c>
       <c r="B93" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>233</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>342</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2516,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2528,7 +2769,7 @@
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -2536,124 +2777,127 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+      <c r="D2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2661,7 +2905,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2669,7 +2913,7 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2677,7 +2921,7 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2685,7 +2929,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2693,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2701,7 +2945,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2709,7 +2953,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2717,7 +2961,7 @@
         <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2725,7 +2969,7 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2733,7 +2977,7 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2741,7 +2985,7 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2749,7 +2993,7 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2757,7 +3001,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2765,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2773,7 +3017,7 @@
         <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2781,7 +3025,7 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2789,7 +3033,7 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2797,7 +3041,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2805,7 +3049,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2813,7 +3057,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2821,7 +3065,7 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2829,7 +3073,7 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2837,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2845,7 +3089,7 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2853,7 +3097,7 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2861,7 +3105,7 @@
         <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2869,7 +3113,7 @@
         <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2877,7 +3121,7 @@
         <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2885,7 +3129,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2893,7 +3137,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2901,7 +3145,7 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,7 +3153,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2917,7 +3161,7 @@
         <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2925,7 +3169,7 @@
         <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2933,7 +3177,7 @@
         <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2941,7 +3185,7 @@
         <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2949,7 +3193,7 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2957,7 +3201,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2965,7 +3209,7 @@
         <v>37</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2973,7 +3217,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2981,7 +3225,7 @@
         <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2989,7 +3233,7 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2997,7 +3241,7 @@
         <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3005,7 +3249,7 @@
         <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3013,7 +3257,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3021,7 +3265,7 @@
         <v>41</v>
       </c>
       <c r="B62" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3029,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3037,7 +3281,7 @@
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3045,7 +3289,7 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3053,7 +3297,7 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3061,7 +3305,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3069,7 +3313,7 @@
         <v>48</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3077,7 +3321,7 @@
         <v>49</v>
       </c>
       <c r="B69" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3085,7 +3329,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3093,7 +3337,7 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3101,7 +3345,7 @@
         <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3109,7 +3353,7 @@
         <v>55</v>
       </c>
       <c r="B73" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3117,7 +3361,7 @@
         <v>56</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3125,7 +3369,7 @@
         <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3133,15 +3377,39 @@
         <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B77" t="s">
-        <v>344</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>373</v>
+      </c>
+      <c r="B78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>375</v>
+      </c>
+      <c r="B79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>378</v>
+      </c>
+      <c r="B80" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
